--- a/src/excel-data/hokushinetsu.xlsx
+++ b/src/excel-data/hokushinetsu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF0F0C-4133-F04E-B797-38658A673DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054EA34-61A0-C842-AB60-12AA95137C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>sortOrder</t>
   </si>
@@ -37,16 +37,10 @@
     <t>price_adult_regular</t>
   </si>
   <si>
-    <t>price_adult_advance</t>
-  </si>
-  <si>
     <t>price_adult_phone</t>
   </si>
   <si>
     <t>price_child_regular</t>
-  </si>
-  <si>
-    <t>price_child_advance</t>
   </si>
   <si>
     <t>price_child_phone</t>
@@ -135,13 +129,25 @@
   </si>
   <si>
     <t>现金支付; 购票机可购买</t>
+  </si>
+  <si>
+    <t>price_over65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_under15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_free</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +160,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,13 +188,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,15 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="13" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,139 +575,471 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="E2">
         <v>830</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>420</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>420</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="97" spans="11:13">
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="11:13">
+      <c r="K98">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13">
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="11:13">
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="11:13">
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="11:13">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="11:13">
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="11:13">
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="11:13">
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="11:13">
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="11:13">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="11:13">
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="11:13">
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="11:13">
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="11:13">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="11:13">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="11:13">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="11:13">
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="11:13">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="11:13">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="11:13">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="11:13">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="11:13">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="11:13">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="11:13">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="11:13">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="11:13">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/hokushinetsu.xlsx
+++ b/src/excel-data/hokushinetsu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054EA34-61A0-C842-AB60-12AA95137C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6A612-1BFF-2F4E-A7E0-C403DA96DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
   <si>
     <t>sortOrder</t>
   </si>
@@ -100,22 +100,7 @@
     <t>北海道</t>
   </si>
   <si>
-    <t>sapporo-subway-1day</t>
-  </si>
-  <si>
-    <t>札幌市营地铁全线一日券</t>
-  </si>
-  <si>
-    <t>札幌地铁全线路的一日券，适合札幌市内一日游。</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>/images/coverage/sapporo-subway-1day.png</t>
-  </si>
-  <si>
-    <t>不问国籍所有游客皆可购买</t>
   </si>
   <si>
     <t>地铁</t>
@@ -141,13 +126,625 @@
   <si>
     <t>price_free</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shinshu-OneDay-Pass</t>
+  </si>
+  <si>
+    <t>信州ワンデーパス</t>
+  </si>
+  <si>
+    <t>信州一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shinshu-OneDay-Pass.png</t>
+  </si>
+  <si>
+    <t>Echigo-OneDay-Pass</t>
+  </si>
+  <si>
+    <t>えちごワンデーパス</t>
+  </si>
+  <si>
+    <t>越后一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Echigo-OneDay-Pass.png</t>
+  </si>
+  <si>
+    <t>Echigo-TwoDay-Pass</t>
+  </si>
+  <si>
+    <t>えちごツーデーパス</t>
+  </si>
+  <si>
+    <t>越后两日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Echigo-TwoDay-Pass.png</t>
+  </si>
+  <si>
+    <t>Hokuriku-Odekake-Tabiwa</t>
+  </si>
+  <si>
+    <t>北陸おでかけtabiwaパス</t>
+  </si>
+  <si>
+    <t>北陆出游tabiwa通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hokuriku-Odekake-Tabiwa.png</t>
+  </si>
+  <si>
+    <t>Kanazawa-Noto-Tabiwa</t>
+  </si>
+  <si>
+    <t>金沢能登tabiwaパス</t>
+  </si>
+  <si>
+    <t>金泽能登tabiwa通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kanazawa-Noto-Tabiwa.png</t>
+  </si>
+  <si>
+    <t>Obama-Tabiwa</t>
+  </si>
+  <si>
+    <t>小浜線tabiwaパス</t>
+  </si>
+  <si>
+    <t>小滨线tabiwa通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Obama-Tabiwa.png</t>
+  </si>
+  <si>
+    <t>Echizen-Tabiwa</t>
+  </si>
+  <si>
+    <t>越前tabiwaパス</t>
+  </si>
+  <si>
+    <t>越前tabiwa通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Echizen-Tabiwa.png</t>
+  </si>
+  <si>
+    <t>Toyama-2Day-Pass</t>
+  </si>
+  <si>
+    <t>とやま周遊２dayパス</t>
+  </si>
+  <si>
+    <t>富山周游两日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyama-2Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Hokuhoku-OneDay-Pass</t>
+  </si>
+  <si>
+    <t>ほくほくワンデーパス</t>
+  </si>
+  <si>
+    <t>北越急行一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hokuhoku-OneDay-Pass.png</t>
+  </si>
+  <si>
+    <t>Tokitetsu-Tour-Pass</t>
+  </si>
+  <si>
+    <t>トキ鉄ツアーパス</t>
+  </si>
+  <si>
+    <t>越后铁道旅游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokitetsu-Tour-Pass.png</t>
+  </si>
+  <si>
+    <t>Ueda-OneDay-Free</t>
+  </si>
+  <si>
+    <t>1日まるまるフリーきっぷ</t>
+  </si>
+  <si>
+    <t>上田电铁一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Ueda-OneDay-Free.png</t>
+  </si>
+  <si>
+    <t>Karuizawa-Bessho-Free</t>
+  </si>
+  <si>
+    <t>軽井沢・別所温泉フリーきっぷ</t>
+  </si>
+  <si>
+    <t>轻井泽·别所温泉自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Karuizawa-Bessho-Free.png</t>
+  </si>
+  <si>
+    <t>Shinano-Karuizawa-Bessho</t>
+  </si>
+  <si>
+    <t>別所線・信州上田レイライン線電車・バスフリーきっぷ</t>
+  </si>
+  <si>
+    <t>别所线·信州上田线路电车巴士自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shinano-Karuizawa-Bessho.png</t>
+  </si>
+  <si>
+    <t>Shinano-Karuizawa-Freepass</t>
+  </si>
+  <si>
+    <t>軽井沢フリーパス</t>
+  </si>
+  <si>
+    <t>轻井泽自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shinano-Karuizawa-Freepass.png</t>
+  </si>
+  <si>
+    <t>Shinano-Kita-Shinano-Free</t>
+  </si>
+  <si>
+    <t>北しなの線フリーきっぷ</t>
+  </si>
+  <si>
+    <t>北信浓线自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shinano-Kita-Shinano-Free.png</t>
+  </si>
+  <si>
+    <t>Nagaden-Free-Ticket</t>
+  </si>
+  <si>
+    <t>長電フリー乗車券</t>
+  </si>
+  <si>
+    <t>长野电铁自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagaden-Free-Ticket.png</t>
+  </si>
+  <si>
+    <t>Kamikochi-Wakuwaku-Daypass</t>
+  </si>
+  <si>
+    <t>上高地線電車わくわく一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>上高地线电车乐趣一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kamikochi-Wakuwaku-Daypass.png</t>
+  </si>
+  <si>
+    <t>Tetsudosen-City-Bus-2Day-Free</t>
+  </si>
+  <si>
+    <t>鉄道線・市内電車２日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>铁道线·市内电车两日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tetsudosen-City-Bus-2Day-Free.png</t>
+  </si>
+  <si>
+    <t>CityTram-Bus-1Day-Free</t>
+  </si>
+  <si>
+    <t>市内電車・バス１日ふりーきっぷ</t>
+  </si>
+  <si>
+    <t>市内电车·巴士一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/CityTram-Bus-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Gourmet-Coupon</t>
+  </si>
+  <si>
+    <t>ぐるっとグルメぐりクーポン</t>
+  </si>
+  <si>
+    <t>美食巡游优惠券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Gourmet-Coupon.png</t>
+  </si>
+  <si>
+    <t>CityTram-Bus-1Day-Free2</t>
+  </si>
+  <si>
+    <t>鉄道線・市内電車１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>铁道·市内公交一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/CityTram-Bus-1Day-Free2.png</t>
+  </si>
+  <si>
+    <t>Iwase-Walking-Free-Ticket</t>
+  </si>
+  <si>
+    <t>岩瀬おさんぽフリーチケット</t>
+  </si>
+  <si>
+    <t>岩濑散步自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iwase-Walking-Free-Ticket.png</t>
+  </si>
+  <si>
+    <t>Toyama-City-Odekake-Ticket</t>
+  </si>
+  <si>
+    <t>富山市内まちなかおでかけチケット</t>
+  </si>
+  <si>
+    <t>富山市区观光通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyama-City-Odekake-Ticket.png</t>
+  </si>
+  <si>
+    <t>Toyama-Airport-City-Free</t>
+  </si>
+  <si>
+    <t>富山空港まちなかフリーチケット</t>
+  </si>
+  <si>
+    <t>富山机场市区自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyama-Airport-City-Free.png</t>
+  </si>
+  <si>
+    <t>Unazuki-Mankitsu-Pass</t>
+  </si>
+  <si>
+    <t>宇奈月満喫きっぷ(全線版)</t>
+  </si>
+  <si>
+    <t>宇奈月全线畅游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Unazuki-Mankitsu-Pass.png</t>
+  </si>
+  <si>
+    <t>Unazuki-Mankitsu-Pass-Uozu-Kurobe</t>
+  </si>
+  <si>
+    <t>宇奈月満喫きっぷ(魚津・黒部版)</t>
+  </si>
+  <si>
+    <t>宇奈月鱼津黑部长游券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Unazuki-Mankitsu-Pass-Uozu-Kurobe.png</t>
+  </si>
+  <si>
+    <t>Ainoa-Free-Pass</t>
+  </si>
+  <si>
+    <t>あいの風とやま鉄道１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>爱之风富山铁道一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Ainoa-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>IR-Ainoa-Free-Pass</t>
+  </si>
+  <si>
+    <t>あいの風・IR１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>爱之风・IR一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/IR-Ainoa-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Noto-Marugoto-Free</t>
+  </si>
+  <si>
+    <t>奥能登まるごとフリーきっぷ</t>
+  </si>
+  <si>
+    <t>奥能登全自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Noto-Marugoto-Free.png</t>
+  </si>
+  <si>
+    <t>Tsukoute-Kudashi-Free</t>
+  </si>
+  <si>
+    <t>つこうてくだしフリーきっぷ</t>
+  </si>
+  <si>
+    <t>乘车请用自由票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tsukoute-Kudashi-Free.png</t>
+  </si>
+  <si>
+    <t>Ishikawa-City-1Day-Free</t>
+  </si>
+  <si>
+    <t>石川線・浅野川線共通一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>石川线·浅野川线共通一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Ishikawa-City-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Koi-No-Shirayamasan-Kippu</t>
+  </si>
+  <si>
+    <t>恋のしらやまさんきっぷ</t>
+  </si>
+  <si>
+    <t>恋之白山通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Koi-No-Shirayamasan-Kippu.png</t>
+  </si>
+  <si>
+    <t>Kanazawa-City-1Day-Free</t>
+  </si>
+  <si>
+    <t>金沢市内１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>金泽市内自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kanazawa-City-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Asanogawa-Sen-Silver-Weekday</t>
+  </si>
+  <si>
+    <t>浅野川線平日限定シルバー1日フリーエコきっぷ</t>
+  </si>
+  <si>
+    <t>浅野川线平日限定银发自由环保券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Asanogawa-Sen-Silver-Weekday.png</t>
+  </si>
+  <si>
+    <t>Ishikawa-Sen-Silver-Weekday</t>
+  </si>
+  <si>
+    <t>石川線平日限定シルバー1日フリーエコきっぷ</t>
+  </si>
+  <si>
+    <t>石川线平日限定银发自由环保券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Ishikawa-Sen-Silver-Weekday.png</t>
+  </si>
+  <si>
+    <t>Asanogawa-Sen-Weekend</t>
+  </si>
+  <si>
+    <t>浅野川線土日祝限定1日フリーエコきっぷ</t>
+  </si>
+  <si>
+    <t>浅野川线周末假日限定自由环保券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Asanogawa-Sen-Weekend.png</t>
+  </si>
+  <si>
+    <t>Ishikawa-Sen-Weekend</t>
+  </si>
+  <si>
+    <t>石川線土日祝限定1日フリーエコきっぷ</t>
+  </si>
+  <si>
+    <t>石川线周末假日限定自由环保券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Ishikawa-Sen-Weekend.png</t>
+  </si>
+  <si>
+    <t>Fukui-Fukufuku-Kippu</t>
+  </si>
+  <si>
+    <t>ふくふくきっぷ</t>
+  </si>
+  <si>
+    <t>福福通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukui-Fukufuku-Kippu.png</t>
+  </si>
+  <si>
+    <t>Fukutetsu-Holiday-Pass</t>
+  </si>
+  <si>
+    <t>電車・バス休日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>电车·公交假日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukutetsu-Holiday-Pass.png</t>
+  </si>
+  <si>
+    <t>Fukutetsu-Echizen-Fukui-Common</t>
+  </si>
+  <si>
+    <t>福井鐵道・えちぜん鉄道共通１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>福井铁道·越前铁道共通一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukutetsu-Echizen-Fukui-Common.png</t>
+  </si>
+  <si>
+    <t>Fukutetsu-Kazokufree</t>
+  </si>
+  <si>
+    <t>ご家族フリーきっぷ</t>
+  </si>
+  <si>
+    <t>家庭自由票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukutetsu-Kazokufree.png</t>
+  </si>
+  <si>
+    <t>Fukutetsu-Premium-65Plus</t>
+  </si>
+  <si>
+    <t>プレミア1日フリー乗車券(65歳以上)</t>
+  </si>
+  <si>
+    <t>65岁以上高级一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukutetsu-Premium-65Plus.png</t>
+  </si>
+  <si>
+    <t>Fukutetsu-Drink-Set</t>
+  </si>
+  <si>
+    <t>ドリンクセット券付１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>含饮料券一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukutetsu-Drink-Set.png</t>
+  </si>
+  <si>
+    <t>Fukutetsu-Fuku-Chaya</t>
+  </si>
+  <si>
+    <t>福福茶屋食事券付１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>含餐饮券一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukutetsu-Fuku-Chaya.png</t>
+  </si>
+  <si>
+    <t>Manyo-OneDay-Free</t>
+  </si>
+  <si>
+    <t>万葉線１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>万叶线一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Manyo-OneDay-Free.png</t>
+  </si>
+  <si>
+    <t>Manyo-Kaiomaru-Coupon</t>
+  </si>
+  <si>
+    <t>万葉線･海王丸セットクーポン</t>
+  </si>
+  <si>
+    <t>万叶线海王丸套餐优惠券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Manyo-Kaiomaru-Coupon.png</t>
+  </si>
+  <si>
+    <t>Manyo-Takaoka-Machinaka-Free</t>
+  </si>
+  <si>
+    <t>高岡まちなか乗り放題１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>高冈市区无限次一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Manyo-Takaoka-Machinaka-Free.png</t>
+  </si>
+  <si>
+    <t>Shinminato-Gourmet-Manyo-Free</t>
+  </si>
+  <si>
+    <t>新湊グルメ＆万葉線フリーきっぷ</t>
+  </si>
+  <si>
+    <t>新港美食&amp;万叶线自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shinminato-Gourmet-Manyo-Free.png</t>
+  </si>
+  <si>
+    <t>IR-Train-Park-Shiroyama</t>
+  </si>
+  <si>
+    <t>トレインパーク白山 IR・シャトルバスフリー乗車券</t>
+  </si>
+  <si>
+    <t>IR白山列车公园和接驳巴士自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/IR-Train-Park-Shiroyama.png</t>
+  </si>
+  <si>
+    <t>IR-Kanazawa-Kurikara-Free</t>
+  </si>
+  <si>
+    <t>IRいしかわ(金沢・倶利伽羅)１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>IR金泽·库利伽拉一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/IR-Kanazawa-Kurikara-Free.png</t>
+  </si>
+  <si>
+    <t>IR-Kanazawa-Daiseiji-Free</t>
+  </si>
+  <si>
+    <t>IRいしかわ(金沢・大聖寺)１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>IR金泽·大圣寺一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/IR-Kanazawa-Daiseiji-Free.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +766,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,9 +795,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -535,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -549,7 +1153,7 @@
     <col min="12" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -584,13 +1188,13 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -632,42 +1236,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:29">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>830</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -681,14 +1261,11 @@
       <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
         <v>23</v>
@@ -697,79 +1274,762 @@
         <v>23</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Z2">
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13">
+      <c r="AC2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="T20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="11:13">
+      <c r="T21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="11:13">
+      <c r="T22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="11:13">
+      <c r="T23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="11:13">
+      <c r="T24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="11:13">
+      <c r="T25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="11:13">
+      <c r="T26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="11:13">
+      <c r="T27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="11:13">
+      <c r="T28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="11:13">
+      <c r="T29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="11:13">
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="T30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
+      <c r="B36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
+      <c r="B37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
+      <c r="B38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="B41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29">
+      <c r="B42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
+      <c r="B43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="B44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29">
+      <c r="B45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29">
+      <c r="B46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29">
+      <c r="B47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29">
+      <c r="B48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29">
+      <c r="B49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29">
+      <c r="B50" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29">
+      <c r="B51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29">
+      <c r="B52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13">
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="K97">
+        <v>2330</v>
+      </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98">
-        <v>2330</v>
-      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
     </row>
     <row r="99" spans="11:13">
       <c r="K99" s="1"/>
@@ -1035,11 +2295,6 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="11:13">
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/hokushinetsu.xlsx
+++ b/src/excel-data/hokushinetsu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6A612-1BFF-2F4E-A7E0-C403DA96DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E410BAF7-0EA1-D74E-A2DA-C7F3014F3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hokushinetsu周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="216">
   <si>
     <t>sortOrder</t>
   </si>
@@ -140,90 +140,6 @@
     <t>/images/coverage/Shinshu-OneDay-Pass.png</t>
   </si>
   <si>
-    <t>Echigo-OneDay-Pass</t>
-  </si>
-  <si>
-    <t>えちごワンデーパス</t>
-  </si>
-  <si>
-    <t>越后一日通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Echigo-OneDay-Pass.png</t>
-  </si>
-  <si>
-    <t>Echigo-TwoDay-Pass</t>
-  </si>
-  <si>
-    <t>えちごツーデーパス</t>
-  </si>
-  <si>
-    <t>越后两日通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Echigo-TwoDay-Pass.png</t>
-  </si>
-  <si>
-    <t>Hokuriku-Odekake-Tabiwa</t>
-  </si>
-  <si>
-    <t>北陸おでかけtabiwaパス</t>
-  </si>
-  <si>
-    <t>北陆出游tabiwa通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Hokuriku-Odekake-Tabiwa.png</t>
-  </si>
-  <si>
-    <t>Kanazawa-Noto-Tabiwa</t>
-  </si>
-  <si>
-    <t>金沢能登tabiwaパス</t>
-  </si>
-  <si>
-    <t>金泽能登tabiwa通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Kanazawa-Noto-Tabiwa.png</t>
-  </si>
-  <si>
-    <t>Obama-Tabiwa</t>
-  </si>
-  <si>
-    <t>小浜線tabiwaパス</t>
-  </si>
-  <si>
-    <t>小滨线tabiwa通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Obama-Tabiwa.png</t>
-  </si>
-  <si>
-    <t>Echizen-Tabiwa</t>
-  </si>
-  <si>
-    <t>越前tabiwaパス</t>
-  </si>
-  <si>
-    <t>越前tabiwa通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Echizen-Tabiwa.png</t>
-  </si>
-  <si>
-    <t>Toyama-2Day-Pass</t>
-  </si>
-  <si>
-    <t>とやま周遊２dayパス</t>
-  </si>
-  <si>
-    <t>富山周游两日通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Toyama-2Day-Pass.png</t>
-  </si>
-  <si>
     <t>Hokuhoku-OneDay-Pass</t>
   </si>
   <si>
@@ -272,18 +188,6 @@
     <t>/images/coverage/Karuizawa-Bessho-Free.png</t>
   </si>
   <si>
-    <t>Shinano-Karuizawa-Bessho</t>
-  </si>
-  <si>
-    <t>別所線・信州上田レイライン線電車・バスフリーきっぷ</t>
-  </si>
-  <si>
-    <t>别所线·信州上田线路电车巴士自由券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Shinano-Karuizawa-Bessho.png</t>
-  </si>
-  <si>
     <t>Shinano-Karuizawa-Freepass</t>
   </si>
   <si>
@@ -308,18 +212,6 @@
     <t>/images/coverage/Shinano-Kita-Shinano-Free.png</t>
   </si>
   <si>
-    <t>Nagaden-Free-Ticket</t>
-  </si>
-  <si>
-    <t>長電フリー乗車券</t>
-  </si>
-  <si>
-    <t>长野电铁自由乘车券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Nagaden-Free-Ticket.png</t>
-  </si>
-  <si>
     <t>Kamikochi-Wakuwaku-Daypass</t>
   </si>
   <si>
@@ -440,30 +332,6 @@
     <t>/images/coverage/Unazuki-Mankitsu-Pass-Uozu-Kurobe.png</t>
   </si>
   <si>
-    <t>Ainoa-Free-Pass</t>
-  </si>
-  <si>
-    <t>あいの風とやま鉄道１日フリーきっぷ</t>
-  </si>
-  <si>
-    <t>爱之风富山铁道一日自由券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Ainoa-Free-Pass.png</t>
-  </si>
-  <si>
-    <t>IR-Ainoa-Free-Pass</t>
-  </si>
-  <si>
-    <t>あいの風・IR１日フリーきっぷ</t>
-  </si>
-  <si>
-    <t>爱之风・IR一日自由券</t>
-  </si>
-  <si>
-    <t>/images/coverage/IR-Ainoa-Free-Pass.png</t>
-  </si>
-  <si>
     <t>Noto-Marugoto-Free</t>
   </si>
   <si>
@@ -737,14 +605,323 @@
     <t>IR金泽·大圣寺一日自由券</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>轻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>井</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>泽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親子セット：1,100円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海王丸乗船券(大人400円,小人200円)付き　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IR-Ikawa-Zenren-OneDay-Freelicket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>石川全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>一日自由通票</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/images/coverage/IR-Kanazawa-Daiseiji-Free.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/images/coverage/IR-Ikawa-Zenren-OneDay-Freelicket.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>IR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>いしかわ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>全線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>１日フリーきっぷ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>周六、周日、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>假日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>越前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>道一日自由乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>券</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えちぜん鉄道１日フリーきっぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Echizen-Railway-1Day-Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/images/coverage/Echizen-Railway-1Day-Free.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Awara-Onsen-Lodging-Free-Kippu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわら温泉宿泊フリーきっぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/images/coverage/Awara-Onsen-Lodging-Free-Kippu.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>芦原温泉住宿自由乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>券</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日フリーきっぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>越前铁道一日自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Echizen-Railway-OneDay-Free.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Echizen-Railway-OneDay-Free</t>
+  </si>
+  <si>
+    <t>大人2名＋小人2名：1,200円
+大人1名＋小人2名：800円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1,040</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -773,6 +950,61 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -795,10 +1027,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1139,14 +1380,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
@@ -1243,6 +1486,12 @@
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E2" s="3">
+        <v>2680</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1050</v>
+      </c>
       <c r="N2" t="s">
         <v>30</v>
       </c>
@@ -1290,6 +1539,27 @@
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E3" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G3">
+        <v>700</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
       <c r="T3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1304,6 +1574,27 @@
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E4" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
       <c r="T4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1318,6 +1609,27 @@
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E5" s="3">
+        <v>1180</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
       <c r="T5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1332,6 +1644,27 @@
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E6" s="3">
+        <v>1880</v>
+      </c>
+      <c r="G6" s="3">
+        <v>940</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
       <c r="T6" s="2" t="s">
         <v>53</v>
       </c>
@@ -1346,6 +1679,27 @@
       <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E7" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1250</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
       <c r="T7" s="2" t="s">
         <v>57</v>
       </c>
@@ -1353,668 +1707,1410 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="19">
       <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1220</v>
+      </c>
+      <c r="G9" s="3">
+        <v>610</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1420</v>
+      </c>
+      <c r="G10" s="3">
+        <v>710</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="E12" s="3">
+        <v>650</v>
+      </c>
+      <c r="G12" s="3">
+        <v>330</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1030</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="16" customHeight="1">
+      <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="E16" s="3">
+        <v>950</v>
+      </c>
+      <c r="G16" s="3">
+        <v>700</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AC16" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:29">
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>980</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" t="s">
+        <v>24</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" t="s">
+        <v>24</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" t="s">
+        <v>24</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:29">
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="E20">
+        <v>900</v>
+      </c>
+      <c r="G20">
+        <v>450</v>
+      </c>
+      <c r="M20" t="s">
+        <v>194</v>
+      </c>
+      <c r="N20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" t="s">
+        <v>24</v>
+      </c>
       <c r="T20" s="2" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:29">
       <c r="B21" s="2" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G21">
+        <v>550</v>
+      </c>
+      <c r="M21" t="s">
+        <v>195</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
       <c r="T21" s="2" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:29">
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="G22">
+        <v>250</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
       <c r="T22" s="2" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="2:29">
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
       <c r="T23" s="2" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:29">
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="E24">
+        <v>600</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
       <c r="T24" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="20">
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="E25" s="3">
+        <v>500</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="T25" s="2" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="20">
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="T26" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" ht="20">
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="T27" s="2" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1500</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" t="s">
+        <v>24</v>
+      </c>
       <c r="T28" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
       <c r="T29" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G30">
+        <v>550</v>
+      </c>
+      <c r="N30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" t="s">
+        <v>24</v>
+      </c>
       <c r="T30" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>152</v>
+        <v>116</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" t="s">
+        <v>24</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
+      </c>
+      <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="G32">
+        <v>400</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" t="s">
+        <v>24</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:29">
       <c r="B33" s="2" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" t="s">
+        <v>24</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:29">
       <c r="B34" s="2" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>164</v>
+        <v>128</v>
+      </c>
+      <c r="E34" s="3">
+        <v>600</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" t="s">
+        <v>24</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:29">
       <c r="B35" s="2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>168</v>
+        <v>132</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="G35">
+        <v>250</v>
+      </c>
+      <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" t="s">
+        <v>24</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:29">
       <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>172</v>
+        <v>136</v>
+      </c>
+      <c r="E36" s="3">
+        <v>600</v>
+      </c>
+      <c r="G36">
+        <v>300</v>
+      </c>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" t="s">
+        <v>24</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" ht="19">
       <c r="B37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G37">
+        <v>900</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" t="s">
+        <v>24</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29">
+        <v>205</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" ht="19">
       <c r="B38" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>180</v>
+        <v>206</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="7">
+        <v>29</v>
+      </c>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>179</v>
+        <v>208</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="2:29">
       <c r="B39" s="2" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>184</v>
+        <v>140</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1450</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="2:29">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" ht="20">
       <c r="B40" s="2" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G40">
+        <v>650</v>
+      </c>
+      <c r="N40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="2:29">
-      <c r="B41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>192</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" ht="18">
+      <c r="B41" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G41">
+        <v>600</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>191</v>
+        <v>212</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:29">
       <c r="B42" s="2" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G42">
+        <v>850</v>
+      </c>
+      <c r="N42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" t="s">
+        <v>24</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" ht="64">
       <c r="B43" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>200</v>
+        <v>152</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="M43" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:29">
       <c r="B44" s="2" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>204</v>
+        <v>156</v>
+      </c>
+      <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" t="s">
+        <v>24</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="2:29">
       <c r="B45" s="2" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>208</v>
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" t="s">
+        <v>24</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:29">
       <c r="B46" s="2" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>212</v>
+        <v>164</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>23</v>
+      </c>
+      <c r="R46" t="s">
+        <v>24</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29">
-      <c r="B47" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29">
-      <c r="B48" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="2:29">
-      <c r="B49" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="2:29">
-      <c r="B50" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="2:29">
-      <c r="B51" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="2:29">
-      <c r="B52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>235</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="11:13">
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="11:13">
+      <c r="K74">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="75" spans="11:13">
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="11:13">
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="11:13">
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="11:13">
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="11:13">
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="11:13">
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="11:13">
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="11:13">
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="11:13">
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="11:13">
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="11:13">
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="11:13">
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="11:13">
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="11:13">
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="11:13">
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="11:13">
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="11:13">
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="11:13">
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="11:13">
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="11:13">
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="11:13">
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
     </row>
     <row r="96" spans="11:13">
       <c r="K96" s="1"/>
@@ -2022,9 +3118,9 @@
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97">
-        <v>2330</v>
-      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
     </row>
     <row r="98" spans="11:13">
       <c r="K98" s="1"/>
@@ -2180,121 +3276,6 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
-    </row>
-    <row r="129" spans="11:13">
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-    </row>
-    <row r="130" spans="11:13">
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-    </row>
-    <row r="131" spans="11:13">
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-    </row>
-    <row r="132" spans="11:13">
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-    </row>
-    <row r="133" spans="11:13">
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-    </row>
-    <row r="134" spans="11:13">
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-    </row>
-    <row r="135" spans="11:13">
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-    </row>
-    <row r="136" spans="11:13">
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="11:13">
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-    </row>
-    <row r="138" spans="11:13">
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-    </row>
-    <row r="139" spans="11:13">
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-    </row>
-    <row r="140" spans="11:13">
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-    </row>
-    <row r="141" spans="11:13">
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-    </row>
-    <row r="142" spans="11:13">
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-    </row>
-    <row r="143" spans="11:13">
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-    </row>
-    <row r="144" spans="11:13">
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-    </row>
-    <row r="145" spans="11:13">
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-    </row>
-    <row r="146" spans="11:13">
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-    </row>
-    <row r="147" spans="11:13">
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-    </row>
-    <row r="148" spans="11:13">
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-    </row>
-    <row r="149" spans="11:13">
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-    </row>
-    <row r="150" spans="11:13">
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-    </row>
-    <row r="151" spans="11:13">
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/hokushinetsu.xlsx
+++ b/src/excel-data/hokushinetsu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E410BAF7-0EA1-D74E-A2DA-C7F3014F3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0044A8B-8E72-F545-91F8-FE02772790D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hokushinetsu周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="217">
   <si>
     <t>sortOrder</t>
   </si>
@@ -914,6 +914,10 @@
   </si>
   <si>
     <t xml:space="preserve">	1,040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1380,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AI128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1396,7 +1400,7 @@
     <col min="12" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1478,8 +1482,11 @@
       <c r="AA1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AB1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1528,11 +1535,11 @@
       <c r="Z2">
         <v>3</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:35">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1563,11 +1570,11 @@
       <c r="T3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:35">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1598,11 +1605,11 @@
       <c r="T4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:35">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1633,11 +1640,11 @@
       <c r="T5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:35">
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
@@ -1668,11 +1675,11 @@
       <c r="T6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:35">
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
@@ -1703,11 +1710,11 @@
       <c r="T7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="19">
+    <row r="8" spans="1:35" ht="19">
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1738,11 +1745,11 @@
       <c r="T8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:35">
       <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
@@ -1773,11 +1780,11 @@
       <c r="T9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:35">
       <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1808,11 +1815,11 @@
       <c r="T10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:35">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1843,11 +1850,11 @@
       <c r="T11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:35">
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1881,11 +1888,11 @@
       <c r="T12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:35">
       <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
@@ -1919,11 +1926,11 @@
       <c r="T13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AI13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:35">
       <c r="B14" s="2" t="s">
         <v>78</v>
       </c>
@@ -1957,11 +1964,11 @@
       <c r="T14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:35">
       <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
@@ -1995,11 +2002,11 @@
       <c r="T15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="16" customHeight="1">
+    <row r="16" spans="1:35" ht="16" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
@@ -2033,11 +2040,11 @@
       <c r="T16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:29">
+    <row r="17" spans="2:35">
       <c r="B17" s="2" t="s">
         <v>90</v>
       </c>
@@ -2071,11 +2078,11 @@
       <c r="T17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="2:29">
+    <row r="18" spans="2:35">
       <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
@@ -2109,11 +2116,11 @@
       <c r="T18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AI18" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="2:35">
       <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
@@ -2147,11 +2154,11 @@
       <c r="T19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:35">
       <c r="B20" s="2" t="s">
         <v>166</v>
       </c>
@@ -2185,11 +2192,11 @@
       <c r="T20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AI20" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:35">
       <c r="B21" s="2" t="s">
         <v>170</v>
       </c>
@@ -2223,11 +2230,11 @@
       <c r="T21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AI21" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:35">
       <c r="B22" s="2" t="s">
         <v>174</v>
       </c>
@@ -2258,11 +2265,11 @@
       <c r="T22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:35">
       <c r="B23" s="2" t="s">
         <v>178</v>
       </c>
@@ -2293,11 +2300,11 @@
       <c r="T23" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:35">
       <c r="B24" s="2" t="s">
         <v>182</v>
       </c>
@@ -2328,11 +2335,11 @@
       <c r="T24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AI24" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="20">
+    <row r="25" spans="2:35" ht="20">
       <c r="B25" s="2" t="s">
         <v>186</v>
       </c>
@@ -2360,11 +2367,11 @@
       <c r="T25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AI25" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="20">
+    <row r="26" spans="2:35" ht="20">
       <c r="B26" s="2" t="s">
         <v>190</v>
       </c>
@@ -2386,11 +2393,11 @@
       <c r="T26" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AC26" s="2" t="s">
+      <c r="AI26" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="2:29" ht="20">
+    <row r="27" spans="2:35" ht="20">
       <c r="B27" s="2" t="s">
         <v>196</v>
       </c>
@@ -2412,11 +2419,11 @@
       <c r="T27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AC27" s="2" t="s">
+      <c r="AI27" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:35">
       <c r="B28" s="2" t="s">
         <v>102</v>
       </c>
@@ -2450,11 +2457,11 @@
       <c r="T28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AC28" s="2" t="s">
+      <c r="AI28" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:35">
       <c r="B29" s="2" t="s">
         <v>106</v>
       </c>
@@ -2470,11 +2477,11 @@
       <c r="T29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="AI29" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:35">
       <c r="B30" s="2" t="s">
         <v>110</v>
       </c>
@@ -2505,11 +2512,11 @@
       <c r="T30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="AI30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:35">
       <c r="B31" s="2" t="s">
         <v>114</v>
       </c>
@@ -2537,11 +2544,11 @@
       <c r="T31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="AI31" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:35">
       <c r="B32" s="2" t="s">
         <v>118</v>
       </c>
@@ -2572,11 +2579,11 @@
       <c r="T32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AC32" s="2" t="s">
+      <c r="AI32" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:35">
       <c r="B33" s="2" t="s">
         <v>122</v>
       </c>
@@ -2604,11 +2611,11 @@
       <c r="T33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AC33" s="2" t="s">
+      <c r="AI33" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:35">
       <c r="B34" s="2" t="s">
         <v>126</v>
       </c>
@@ -2636,11 +2643,11 @@
       <c r="T34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="AI34" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:35">
       <c r="B35" s="2" t="s">
         <v>130</v>
       </c>
@@ -2671,11 +2678,11 @@
       <c r="T35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="AI35" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="2:35">
       <c r="B36" s="2" t="s">
         <v>134</v>
       </c>
@@ -2706,11 +2713,11 @@
       <c r="T36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AI36" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="2:29" ht="19">
+    <row r="37" spans="2:35" ht="19">
       <c r="B37" s="2" t="s">
         <v>204</v>
       </c>
@@ -2741,11 +2748,11 @@
       <c r="T37" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AC37" s="6" t="s">
+      <c r="AI37" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="2:29" ht="19">
+    <row r="38" spans="2:35" ht="19">
       <c r="B38" s="2" t="s">
         <v>206</v>
       </c>
@@ -2769,11 +2776,11 @@
       <c r="T38" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AC38" s="6" t="s">
+      <c r="AI38" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="2:29">
+    <row r="39" spans="2:35">
       <c r="B39" s="2" t="s">
         <v>138</v>
       </c>
@@ -2789,11 +2796,11 @@
       <c r="T39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AC39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="2:29" ht="20">
+    <row r="40" spans="2:35" ht="20">
       <c r="B40" s="2" t="s">
         <v>142</v>
       </c>
@@ -2824,11 +2831,11 @@
       <c r="T40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AC40" s="2" t="s">
+      <c r="AI40" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:29" ht="18">
+    <row r="41" spans="2:35" ht="18">
       <c r="B41" s="8" t="s">
         <v>213</v>
       </c>
@@ -2844,11 +2851,11 @@
       <c r="T41" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AC41" s="6" t="s">
+      <c r="AI41" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="2:29">
+    <row r="42" spans="2:35">
       <c r="B42" s="2" t="s">
         <v>146</v>
       </c>
@@ -2879,11 +2886,11 @@
       <c r="T42" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AC42" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="2:29" ht="64">
+    <row r="43" spans="2:35" ht="64">
       <c r="B43" s="2" t="s">
         <v>150</v>
       </c>
@@ -2897,11 +2904,11 @@
       <c r="T43" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AC43" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="2:35">
       <c r="B44" s="2" t="s">
         <v>154</v>
       </c>
@@ -2929,11 +2936,11 @@
       <c r="T44" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AC44" s="2" t="s">
+      <c r="AI44" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="2:29">
+    <row r="45" spans="2:35">
       <c r="B45" s="2" t="s">
         <v>158</v>
       </c>
@@ -2961,11 +2968,11 @@
       <c r="T45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AC45" s="2" t="s">
+      <c r="AI45" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="2:35">
       <c r="B46" s="2" t="s">
         <v>162</v>
       </c>
@@ -2993,7 +3000,7 @@
       <c r="T46" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AC46" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/excel-data/hokushinetsu.xlsx
+++ b/src/excel-data/hokushinetsu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0044A8B-8E72-F545-91F8-FE02772790D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8693179B-EC11-2F47-9AE9-6B949E9A6CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hokushinetsu周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="216">
   <si>
     <t>sortOrder</t>
   </si>
@@ -100,9 +100,6 @@
     <t>北海道</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>地铁</t>
   </si>
   <si>
@@ -110,22 +107,19 @@
   </si>
   <si>
     <t>bestFor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>现金支付; 购票机可购买</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>price_over65</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>price_under15</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>price_free</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shinshu-OneDay-Pass</t>
@@ -134,9 +128,6 @@
     <t>信州ワンデーパス</t>
   </si>
   <si>
-    <t>信州一日通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Shinshu-OneDay-Pass.png</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>ほくほくワンデーパス</t>
   </si>
   <si>
-    <t>北越急行一日通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Hokuhoku-OneDay-Pass.png</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>トキ鉄ツアーパス</t>
   </si>
   <si>
-    <t>越后铁道旅游通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Tokitetsu-Tour-Pass.png</t>
   </si>
   <si>
@@ -170,9 +155,6 @@
     <t>1日まるまるフリーきっぷ</t>
   </si>
   <si>
-    <t>上田电铁一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Ueda-OneDay-Free.png</t>
   </si>
   <si>
@@ -182,9 +164,6 @@
     <t>軽井沢・別所温泉フリーきっぷ</t>
   </si>
   <si>
-    <t>轻井泽·别所温泉自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Karuizawa-Bessho-Free.png</t>
   </si>
   <si>
@@ -194,9 +173,6 @@
     <t>軽井沢フリーパス</t>
   </si>
   <si>
-    <t>轻井泽自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Shinano-Karuizawa-Freepass.png</t>
   </si>
   <si>
@@ -206,21 +182,12 @@
     <t>北しなの線フリーきっぷ</t>
   </si>
   <si>
-    <t>北信浓线自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Shinano-Kita-Shinano-Free.png</t>
   </si>
   <si>
     <t>Kamikochi-Wakuwaku-Daypass</t>
   </si>
   <si>
-    <t>上高地線電車わくわく一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>上高地线电车乐趣一日通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kamikochi-Wakuwaku-Daypass.png</t>
   </si>
   <si>
@@ -230,9 +197,6 @@
     <t>鉄道線・市内電車２日フリーきっぷ</t>
   </si>
   <si>
-    <t>铁道线·市内电车两日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Tetsudosen-City-Bus-2Day-Free.png</t>
   </si>
   <si>
@@ -242,9 +206,6 @@
     <t>市内電車・バス１日ふりーきっぷ</t>
   </si>
   <si>
-    <t>市内电车·巴士一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/CityTram-Bus-1Day-Free.png</t>
   </si>
   <si>
@@ -266,9 +227,6 @@
     <t>鉄道線・市内電車１日フリーきっぷ</t>
   </si>
   <si>
-    <t>铁道·市内公交一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/CityTram-Bus-1Day-Free2.png</t>
   </si>
   <si>
@@ -278,9 +236,6 @@
     <t>岩瀬おさんぽフリーチケット</t>
   </si>
   <si>
-    <t>岩濑散步自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Iwase-Walking-Free-Ticket.png</t>
   </si>
   <si>
@@ -290,9 +245,6 @@
     <t>富山市内まちなかおでかけチケット</t>
   </si>
   <si>
-    <t>富山市区观光通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Toyama-City-Odekake-Ticket.png</t>
   </si>
   <si>
@@ -302,9 +254,6 @@
     <t>富山空港まちなかフリーチケット</t>
   </si>
   <si>
-    <t>富山机场市区自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Toyama-Airport-City-Free.png</t>
   </si>
   <si>
@@ -314,9 +263,6 @@
     <t>宇奈月満喫きっぷ(全線版)</t>
   </si>
   <si>
-    <t>宇奈月全线畅游通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Unazuki-Mankitsu-Pass.png</t>
   </si>
   <si>
@@ -338,9 +284,6 @@
     <t>奥能登まるごとフリーきっぷ</t>
   </si>
   <si>
-    <t>奥能登全自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Noto-Marugoto-Free.png</t>
   </si>
   <si>
@@ -350,21 +293,12 @@
     <t>つこうてくだしフリーきっぷ</t>
   </si>
   <si>
-    <t>乘车请用自由票</t>
-  </si>
-  <si>
     <t>/images/coverage/Tsukoute-Kudashi-Free.png</t>
   </si>
   <si>
     <t>Ishikawa-City-1Day-Free</t>
   </si>
   <si>
-    <t>石川線・浅野川線共通一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>石川线·浅野川线共通一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Ishikawa-City-1Day-Free.png</t>
   </si>
   <si>
@@ -374,9 +308,6 @@
     <t>恋のしらやまさんきっぷ</t>
   </si>
   <si>
-    <t>恋之白山通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Koi-No-Shirayamasan-Kippu.png</t>
   </si>
   <si>
@@ -386,9 +317,6 @@
     <t>金沢市内１日フリー乗車券</t>
   </si>
   <si>
-    <t>金泽市内自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kanazawa-City-1Day-Free.png</t>
   </si>
   <si>
@@ -398,9 +326,6 @@
     <t>浅野川線平日限定シルバー1日フリーエコきっぷ</t>
   </si>
   <si>
-    <t>浅野川线平日限定银发自由环保券</t>
-  </si>
-  <si>
     <t>/images/coverage/Asanogawa-Sen-Silver-Weekday.png</t>
   </si>
   <si>
@@ -410,9 +335,6 @@
     <t>石川線平日限定シルバー1日フリーエコきっぷ</t>
   </si>
   <si>
-    <t>石川线平日限定银发自由环保券</t>
-  </si>
-  <si>
     <t>/images/coverage/Ishikawa-Sen-Silver-Weekday.png</t>
   </si>
   <si>
@@ -422,9 +344,6 @@
     <t>浅野川線土日祝限定1日フリーエコきっぷ</t>
   </si>
   <si>
-    <t>浅野川线周末假日限定自由环保券</t>
-  </si>
-  <si>
     <t>/images/coverage/Asanogawa-Sen-Weekend.png</t>
   </si>
   <si>
@@ -434,9 +353,6 @@
     <t>石川線土日祝限定1日フリーエコきっぷ</t>
   </si>
   <si>
-    <t>石川线周末假日限定自由环保券</t>
-  </si>
-  <si>
     <t>/images/coverage/Ishikawa-Sen-Weekend.png</t>
   </si>
   <si>
@@ -446,9 +362,6 @@
     <t>ふくふくきっぷ</t>
   </si>
   <si>
-    <t>福福通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Fukui-Fukufuku-Kippu.png</t>
   </si>
   <si>
@@ -458,9 +371,6 @@
     <t>電車・バス休日フリーきっぷ</t>
   </si>
   <si>
-    <t>电车·公交假日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Fukutetsu-Holiday-Pass.png</t>
   </si>
   <si>
@@ -470,9 +380,6 @@
     <t>福井鐵道・えちぜん鉄道共通１日フリーきっぷ</t>
   </si>
   <si>
-    <t>福井铁道·越前铁道共通一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Fukutetsu-Echizen-Fukui-Common.png</t>
   </si>
   <si>
@@ -482,9 +389,6 @@
     <t>ご家族フリーきっぷ</t>
   </si>
   <si>
-    <t>家庭自由票</t>
-  </si>
-  <si>
     <t>/images/coverage/Fukutetsu-Kazokufree.png</t>
   </si>
   <si>
@@ -494,9 +398,6 @@
     <t>プレミア1日フリー乗車券(65歳以上)</t>
   </si>
   <si>
-    <t>65岁以上高级一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Fukutetsu-Premium-65Plus.png</t>
   </si>
   <si>
@@ -506,9 +407,6 @@
     <t>ドリンクセット券付１日フリー乗車券</t>
   </si>
   <si>
-    <t>含饮料券一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Fukutetsu-Drink-Set.png</t>
   </si>
   <si>
@@ -518,9 +416,6 @@
     <t>福福茶屋食事券付１日フリー乗車券</t>
   </si>
   <si>
-    <t>含餐饮券一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Fukutetsu-Fuku-Chaya.png</t>
   </si>
   <si>
@@ -530,9 +425,6 @@
     <t>万葉線１日フリー乗車券</t>
   </si>
   <si>
-    <t>万叶线一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Manyo-OneDay-Free.png</t>
   </si>
   <si>
@@ -554,9 +446,6 @@
     <t>高岡まちなか乗り放題１日フリーきっぷ</t>
   </si>
   <si>
-    <t>高冈市区无限次一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Manyo-Takaoka-Machinaka-Free.png</t>
   </si>
   <si>
@@ -566,9 +455,6 @@
     <t>新湊グルメ＆万葉線フリーきっぷ</t>
   </si>
   <si>
-    <t>新港美食&amp;万叶线自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Shinminato-Gourmet-Manyo-Free.png</t>
   </si>
   <si>
@@ -578,9 +464,6 @@
     <t>トレインパーク白山 IR・シャトルバスフリー乗車券</t>
   </si>
   <si>
-    <t>IR白山列车公园和接驳巴士自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/IR-Train-Park-Shiroyama.png</t>
   </si>
   <si>
@@ -590,9 +473,6 @@
     <t>IRいしかわ(金沢・倶利伽羅)１日フリーきっぷ</t>
   </si>
   <si>
-    <t>IR金泽·库利伽拉一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/IR-Kanazawa-Kurikara-Free.png</t>
   </si>
   <si>
@@ -602,110 +482,24 @@
     <t>IRいしかわ(金沢・大聖寺)１日フリーきっぷ</t>
   </si>
   <si>
-    <t>IR金泽·大圣寺一日自由券</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>轻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>井</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>泽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>親子セット：1,100円</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>海王丸乗船券(大人400円,小人200円)付き　</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>IR-Ikawa-Zenren-OneDay-Freelicket</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>石川全</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>一日自由通票</t>
-    </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>/images/coverage/IR-Kanazawa-Daiseiji-Free.png</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>/images/coverage/IR-Ikawa-Zenren-OneDay-Freelicket.png</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -756,7 +550,7 @@
       </rPr>
       <t>１日フリーきっぷ</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -784,39 +578,133 @@
     </r>
   </si>
   <si>
+    <t>えちぜん鉄道１日フリーきっぷ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Echizen-Railway-1Day-Free</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/images/coverage/Echizen-Railway-1Day-Free.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Awara-Onsen-Lodging-Free-Kippu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あわら温泉宿泊フリーきっぷ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/images/coverage/Awara-Onsen-Lodging-Free-Kippu.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/images/coverage/Echizen-Railway-OneDay-Free.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Echizen-Railway-OneDay-Free</t>
+  </si>
+  <si>
+    <t>大人2名＋小人2名：1,200円
+大人1名＋小人2名：800円</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1,040</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>越前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>铁</t>
+      <t>现</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="MS Mincho"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>道一日自由乘</t>
+      <t>购</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">票; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
@@ -826,111 +714,190 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="MS Mincho"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>券</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>えちぜん鉄道１日フリーきっぷ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Echizen-Railway-1Day-Free</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/images/coverage/Echizen-Railway-1Day-Free.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Awara-Onsen-Lodging-Free-Kippu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あわら温泉宿泊フリーきっぷ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/images/coverage/Awara-Onsen-Lodging-Free-Kippu.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>芦原温泉住宿自由乘</t>
+      <t>站</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>车</t>
+      <t>购</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="MS Mincho"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>券</t>
+      <t>票；</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一日フリーきっぷ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>越前铁道一日自由乘车券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Echizen-Railway-OneDay-Free.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Echizen-Railway-OneDay-Free</t>
-  </si>
-  <si>
-    <t>大人2名＋小人2名：1,200円
-大人1名＋小人2名：800円</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	1,040</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ticket_note</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不问国籍所有游客皆可购买</t>
+  </si>
+  <si>
+    <t>上高地線電車わくわく1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>石川線・浅野川線共通1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>信州1日周游券</t>
+  </si>
+  <si>
+    <t>北越急行1日周游券</t>
+  </si>
+  <si>
+    <t>越后铁道旅游周游券</t>
+  </si>
+  <si>
+    <t>上高地线电车乐趣1日周游券</t>
+  </si>
+  <si>
+    <t>富山市区观光周游券</t>
+  </si>
+  <si>
+    <t>宇奈月全线畅游周游券</t>
+  </si>
+  <si>
+    <t>恋之白山周游券</t>
+  </si>
+  <si>
+    <t>福福周游券</t>
+  </si>
+  <si>
+    <t>上田电铁1日周游券</t>
+  </si>
+  <si>
+    <t>轻井泽·别所温泉周游券</t>
+  </si>
+  <si>
+    <t>轻井泽周游券</t>
+  </si>
+  <si>
+    <t>轻井泽周游券2</t>
+  </si>
+  <si>
+    <t>北信浓线周游券</t>
+  </si>
+  <si>
+    <t>铁道线·市内电车两日周游券</t>
+  </si>
+  <si>
+    <t>市内电车·巴士1日券</t>
+  </si>
+  <si>
+    <t>铁道·市内公交1日周游券</t>
+  </si>
+  <si>
+    <t>岩濑散步券</t>
+  </si>
+  <si>
+    <t>富山机场市区券</t>
+  </si>
+  <si>
+    <t>万叶线1日券</t>
+  </si>
+  <si>
+    <t>高冈市区无限次1日券</t>
+  </si>
+  <si>
+    <t>新港美食&amp;万叶线券</t>
+  </si>
+  <si>
+    <t>IR白山列车公园和接驳巴士券</t>
+  </si>
+  <si>
+    <t>IR金泽·库利伽拉1日券</t>
+  </si>
+  <si>
+    <t>IR金泽·大圣寺1日券</t>
+  </si>
+  <si>
+    <t>石川全线1日周游券</t>
+  </si>
+  <si>
+    <t>奥能登全周游券</t>
+  </si>
+  <si>
+    <t>乘车请用票</t>
+  </si>
+  <si>
+    <t>石川线·浅野川线共通1日券</t>
+  </si>
+  <si>
+    <t>金泽市内周游券</t>
+  </si>
+  <si>
+    <t>浅野川线平日限定银发环保券</t>
+  </si>
+  <si>
+    <t>石川线平日限定银发环保券</t>
+  </si>
+  <si>
+    <t>浅野川线周末假日限定环保券</t>
+  </si>
+  <si>
+    <t>石川线周末假日限定环保券</t>
+  </si>
+  <si>
+    <t>越前铁道1日乘车券</t>
+  </si>
+  <si>
+    <t>芦原温泉住宿乘车券</t>
+  </si>
+  <si>
+    <t>电车·公交假日券</t>
+  </si>
+  <si>
+    <t>福井铁道·越前铁道共通1日券</t>
+  </si>
+  <si>
+    <t>家庭票</t>
+  </si>
+  <si>
+    <t>65岁以上高级1日券</t>
+  </si>
+  <si>
+    <t>含饮料券1日周游券</t>
+  </si>
+  <si>
+    <t>含餐饮券1日周游券</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -953,13 +920,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Noto Sans CJK JP"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1009,13 +969,33 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黒体-簡 ミディアム"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1029,12 +1009,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,6 +1024,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1386,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1398,6 +1380,9 @@
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" customWidth="1"/>
+    <col min="20" max="20" width="49" customWidth="1"/>
+    <col min="21" max="21" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -1426,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1435,13 +1420,13 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -1483,15 +1468,15 @@
         <v>22</v>
       </c>
       <c r="AB1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="20">
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E2" s="3">
         <v>2680</v>
@@ -1499,11 +1484,11 @@
       <c r="G2" s="3">
         <v>1050</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
+      <c r="N2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -1518,33 +1503,36 @@
         <v>25</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
         <v>27</v>
       </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>28</v>
-      </c>
       <c r="Z2">
         <v>3</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="20">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3">
         <v>1500</v>
@@ -1552,11 +1540,11 @@
       <c r="G3">
         <v>700</v>
       </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
+      <c r="N3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -1568,18 +1556,21 @@
         <v>24</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="20">
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3">
         <v>2400</v>
@@ -1587,11 +1578,11 @@
       <c r="G4" s="3">
         <v>1200</v>
       </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
+      <c r="N4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>23</v>
@@ -1603,18 +1594,21 @@
         <v>24</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="20">
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3">
         <v>1180</v>
@@ -1622,11 +1616,11 @@
       <c r="G5">
         <v>600</v>
       </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
+      <c r="N5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
@@ -1638,18 +1632,21 @@
         <v>24</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="20">
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="E6" s="3">
         <v>1880</v>
@@ -1657,11 +1654,11 @@
       <c r="G6" s="3">
         <v>940</v>
       </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
+      <c r="N6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>23</v>
@@ -1673,18 +1670,21 @@
         <v>24</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="20">
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E7" s="3">
         <v>2500</v>
@@ -1692,11 +1692,11 @@
       <c r="G7" s="3">
         <v>1250</v>
       </c>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
+      <c r="N7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -1708,18 +1708,21 @@
         <v>24</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="20">
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E8" s="3">
         <v>3600</v>
@@ -1727,8 +1730,8 @@
       <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" t="s">
-        <v>30</v>
+      <c r="N8" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -1743,18 +1746,21 @@
         <v>24</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="20">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="E9" s="3">
         <v>1220</v>
@@ -1762,11 +1768,11 @@
       <c r="G9" s="3">
         <v>610</v>
       </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
+      <c r="N9" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>23</v>
@@ -1778,18 +1784,21 @@
         <v>24</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="20">
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="E10" s="3">
         <v>1420</v>
@@ -1797,11 +1806,11 @@
       <c r="G10" s="3">
         <v>710</v>
       </c>
-      <c r="N10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
+      <c r="N10" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
@@ -1813,18 +1822,21 @@
         <v>24</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="20">
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="E11" s="3">
         <v>6000</v>
@@ -1832,8 +1844,8 @@
       <c r="G11" s="3">
         <v>3000</v>
       </c>
-      <c r="N11" t="s">
-        <v>30</v>
+      <c r="N11" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -1848,18 +1860,21 @@
         <v>24</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="20">
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="E12" s="3">
         <v>650</v>
@@ -1870,11 +1885,11 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" t="s">
-        <v>26</v>
+      <c r="N12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>23</v>
@@ -1886,18 +1901,21 @@
         <v>24</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="20">
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3">
         <v>1500</v>
@@ -1908,11 +1926,11 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
+      <c r="N13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>23</v>
@@ -1924,18 +1942,21 @@
         <v>24</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="20">
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="E14" s="3">
         <v>3400</v>
@@ -1946,11 +1967,11 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
+      <c r="N14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>23</v>
@@ -1962,18 +1983,21 @@
         <v>24</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="20">
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="E15" s="3">
         <v>1250</v>
@@ -1984,11 +2008,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" t="s">
-        <v>26</v>
+      <c r="N15" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
@@ -2000,18 +2024,21 @@
         <v>24</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="16" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="E16" s="3">
         <v>950</v>
@@ -2022,11 +2049,11 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
+      <c r="N16" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
       </c>
       <c r="P16" t="s">
         <v>23</v>
@@ -2038,18 +2065,21 @@
         <v>24</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" ht="20">
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="E17" s="3">
         <v>1500</v>
@@ -2060,11 +2090,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
+      <c r="N17" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
       </c>
       <c r="P17" t="s">
         <v>23</v>
@@ -2076,18 +2106,21 @@
         <v>24</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" ht="20">
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="E18" s="3">
         <v>3700</v>
@@ -2098,11 +2131,11 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" t="s">
-        <v>26</v>
+      <c r="N18" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>23</v>
@@ -2114,18 +2147,21 @@
         <v>24</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
+      </c>
+      <c r="Z18">
+        <v>3</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" ht="20">
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3">
         <v>2500</v>
@@ -2136,11 +2172,11 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" t="s">
-        <v>26</v>
+      <c r="N19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
       <c r="P19" t="s">
         <v>23</v>
@@ -2152,18 +2188,21 @@
         <v>24</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" ht="20">
       <c r="B20" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E20">
         <v>900</v>
@@ -2172,13 +2211,13 @@
         <v>450</v>
       </c>
       <c r="M20" t="s">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" t="s">
-        <v>26</v>
+        <v>152</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>23</v>
@@ -2190,18 +2229,21 @@
         <v>24</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="2:35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" ht="20">
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E21" s="3">
         <v>1100</v>
@@ -2210,13 +2252,13 @@
         <v>550</v>
       </c>
       <c r="M21" t="s">
-        <v>195</v>
-      </c>
-      <c r="N21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" t="s">
-        <v>26</v>
+        <v>153</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
       <c r="P21" t="s">
         <v>23</v>
@@ -2228,18 +2270,21 @@
         <v>24</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>173</v>
+        <v>137</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="2:35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" ht="20">
       <c r="B22" s="2" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2247,11 +2292,11 @@
       <c r="G22">
         <v>250</v>
       </c>
-      <c r="N22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" t="s">
-        <v>26</v>
+      <c r="N22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>23</v>
@@ -2263,18 +2308,21 @@
         <v>24</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="2:35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" ht="20">
       <c r="B23" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E23" s="3">
         <v>2300</v>
@@ -2282,11 +2330,11 @@
       <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" t="s">
-        <v>26</v>
+      <c r="N23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
       </c>
       <c r="P23" t="s">
         <v>23</v>
@@ -2298,18 +2346,21 @@
         <v>24</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>181</v>
+        <v>143</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="2:35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" ht="20">
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E24">
         <v>600</v>
@@ -2317,11 +2368,11 @@
       <c r="G24">
         <v>300</v>
       </c>
-      <c r="N24" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" t="s">
-        <v>26</v>
+      <c r="N24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
       </c>
       <c r="P24" t="s">
         <v>23</v>
@@ -2333,27 +2384,30 @@
         <v>24</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>185</v>
+        <v>146</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:35" ht="20">
       <c r="B25" s="2" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E25" s="3">
         <v>500</v>
       </c>
-      <c r="N25" t="s">
-        <v>30</v>
-      </c>
-      <c r="O25" t="s">
-        <v>26</v>
+      <c r="N25" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
       </c>
       <c r="P25" t="s">
         <v>23</v>
@@ -2362,73 +2416,82 @@
         <v>23</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>189</v>
+        <v>149</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:35" ht="20">
       <c r="B26" s="2" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" t="s">
-        <v>26</v>
+      <c r="N26" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>198</v>
+        <v>155</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:35" ht="20">
       <c r="B27" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" t="s">
-        <v>26</v>
+      <c r="N27" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>199</v>
+        <v>156</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
       </c>
       <c r="AI27" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" ht="20">
+      <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="2:35">
-      <c r="B28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E28" s="3">
         <v>3000</v>
@@ -2439,8 +2502,8 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" t="s">
-        <v>30</v>
+      <c r="N28" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2455,18 +2518,21 @@
         <v>24</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="2:35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" ht="20">
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="E29" s="3">
         <v>1000</v>
@@ -2474,19 +2540,25 @@
       <c r="G29">
         <v>500</v>
       </c>
+      <c r="N29" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="T29" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="2:35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" ht="20">
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E30" s="3">
         <v>1100</v>
@@ -2494,11 +2566,11 @@
       <c r="G30">
         <v>550</v>
       </c>
-      <c r="N30" t="s">
-        <v>30</v>
-      </c>
-      <c r="O30" t="s">
-        <v>26</v>
+      <c r="N30" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
       </c>
       <c r="P30" t="s">
         <v>23</v>
@@ -2510,27 +2582,30 @@
         <v>24</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="2:35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" ht="20">
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="E31" s="3">
         <v>2000</v>
       </c>
-      <c r="N31" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" t="s">
-        <v>26</v>
+      <c r="N31" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
       </c>
       <c r="P31" t="s">
         <v>23</v>
@@ -2542,18 +2617,21 @@
         <v>24</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
+      </c>
+      <c r="Z31">
+        <v>3</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="2:35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35" ht="20">
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="E32" s="3">
         <v>800</v>
@@ -2561,11 +2639,11 @@
       <c r="G32">
         <v>400</v>
       </c>
-      <c r="N32" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" t="s">
-        <v>26</v>
+      <c r="N32" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32" t="s">
         <v>23</v>
@@ -2577,27 +2655,30 @@
         <v>24</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+      <c r="Z32">
+        <v>3</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="2:35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" ht="20">
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" t="s">
-        <v>30</v>
-      </c>
-      <c r="O33" t="s">
-        <v>26</v>
+      <c r="N33" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
       </c>
       <c r="P33" t="s">
         <v>23</v>
@@ -2609,27 +2690,30 @@
         <v>24</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="Z33">
+        <v>3</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="2:35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:35" ht="20">
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="E34" s="3">
         <v>600</v>
       </c>
-      <c r="N34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O34" t="s">
-        <v>26</v>
+      <c r="N34" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
       </c>
       <c r="P34" t="s">
         <v>23</v>
@@ -2641,18 +2725,21 @@
         <v>24</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="2:35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35" ht="20">
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="E35" s="3">
         <v>500</v>
@@ -2660,11 +2747,11 @@
       <c r="G35">
         <v>250</v>
       </c>
-      <c r="N35" t="s">
-        <v>30</v>
-      </c>
-      <c r="O35" t="s">
-        <v>26</v>
+      <c r="N35" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
       </c>
       <c r="P35" t="s">
         <v>23</v>
@@ -2676,18 +2763,21 @@
         <v>24</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="2:35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" ht="20">
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="E36" s="3">
         <v>600</v>
@@ -2695,11 +2785,11 @@
       <c r="G36">
         <v>300</v>
       </c>
-      <c r="N36" t="s">
-        <v>30</v>
-      </c>
-      <c r="O36" t="s">
-        <v>26</v>
+      <c r="N36" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
       </c>
       <c r="P36" t="s">
         <v>23</v>
@@ -2711,18 +2801,21 @@
         <v>24</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="2:35" ht="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35" ht="20">
       <c r="B37" s="2" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E37" s="3">
         <v>1700</v>
@@ -2730,11 +2823,11 @@
       <c r="G37">
         <v>900</v>
       </c>
-      <c r="N37" t="s">
-        <v>30</v>
-      </c>
-      <c r="O37" t="s">
-        <v>26</v>
+      <c r="N37" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
       </c>
       <c r="P37" t="s">
         <v>23</v>
@@ -2746,15 +2839,18 @@
         <v>24</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>205</v>
+        <v>161</v>
+      </c>
+      <c r="Z37">
+        <v>3</v>
       </c>
       <c r="AI37" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="2:35" ht="19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35" ht="20">
       <c r="B38" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>209</v>
@@ -2762,8 +2858,8 @@
       <c r="E38" s="3">
         <v>2500</v>
       </c>
-      <c r="N38" s="7" t="s">
-        <v>30</v>
+      <c r="N38" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="O38" s="7">
         <v>29</v>
@@ -2774,18 +2870,21 @@
         <v>24</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>208</v>
+        <v>164</v>
+      </c>
+      <c r="Z38">
+        <v>3</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="2:35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35" ht="20">
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="E39" s="3">
         <v>2900</v>
@@ -2793,19 +2892,25 @@
       <c r="G39" s="3">
         <v>1450</v>
       </c>
+      <c r="N39" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="T39" s="2" t="s">
-        <v>141</v>
+        <v>112</v>
+      </c>
+      <c r="Z39">
+        <v>3</v>
       </c>
       <c r="AI39" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:35" ht="20">
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="E40" s="3">
         <v>1300</v>
@@ -2813,11 +2918,11 @@
       <c r="G40">
         <v>650</v>
       </c>
-      <c r="N40" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" t="s">
-        <v>26</v>
+      <c r="N40" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
       </c>
       <c r="P40" t="s">
         <v>23</v>
@@ -2826,21 +2931,24 @@
         <v>23</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
+      </c>
+      <c r="Z40">
+        <v>3</v>
       </c>
       <c r="AI40" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="2:35" ht="18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35" ht="20">
       <c r="B41" s="8" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E41" s="3">
         <v>1200</v>
@@ -2848,19 +2956,25 @@
       <c r="G41">
         <v>600</v>
       </c>
+      <c r="N41" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="T41" s="2" t="s">
-        <v>212</v>
+        <v>165</v>
+      </c>
+      <c r="Z41">
+        <v>3</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="2:35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35" ht="20">
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="E42" s="3">
         <v>1700</v>
@@ -2868,11 +2982,11 @@
       <c r="G42">
         <v>850</v>
       </c>
-      <c r="N42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O42" t="s">
-        <v>26</v>
+      <c r="N42" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
       </c>
       <c r="P42" t="s">
         <v>23</v>
@@ -2884,45 +2998,54 @@
         <v>24</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
+      </c>
+      <c r="Z42">
+        <v>3</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="2:35" ht="64">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="2:35" ht="67">
       <c r="B43" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="E43" s="3"/>
       <c r="M43" s="9" t="s">
-        <v>214</v>
+        <v>167</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="2:35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35" ht="20">
       <c r="B44" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" t="s">
-        <v>26</v>
+      <c r="N44" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
       </c>
       <c r="P44" t="s">
         <v>23</v>
@@ -2934,59 +3057,65 @@
         <v>24</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
+      </c>
+      <c r="Z44">
+        <v>3</v>
       </c>
       <c r="AI44" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="2:35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35" ht="20">
       <c r="B45" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
+        <v>168</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z45">
+        <v>3</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35" ht="20">
+      <c r="B46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="N45" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" t="s">
-        <v>26</v>
-      </c>
-      <c r="P45" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" t="s">
-        <v>24</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI45" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35">
-      <c r="B46" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" t="s">
-        <v>30</v>
-      </c>
-      <c r="O46" t="s">
-        <v>26</v>
+      <c r="N46" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
       </c>
       <c r="P46" t="s">
         <v>23</v>
@@ -2998,11 +3127,17 @@
         <v>24</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>165</v>
+        <v>130</v>
+      </c>
+      <c r="Z46">
+        <v>3</v>
       </c>
       <c r="AI46" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="2:35">
+      <c r="N47" s="10"/>
     </row>
     <row r="73" spans="11:13">
       <c r="K73" s="1"/>
@@ -3285,7 +3420,7 @@
       <c r="M128" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>